--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scot\Google Drive\Medill IMC\1_Digital Analytics\2015_FALL\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xu\Documents\GitHub\imcanalytics_fall15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>Customer</t>
   </si>
@@ -195,13 +195,133 @@
   </si>
   <si>
     <t>Last Referring Channel (Media.CHAN.ID)</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Days Since Last Visit</t>
+  </si>
+  <si>
+    <t>Genre Preference</t>
+  </si>
+  <si>
+    <t>Total Purchase Value</t>
+  </si>
+  <si>
+    <t>Days Since Last Purchase</t>
+  </si>
+  <si>
+    <t>Items in Cart</t>
+  </si>
+  <si>
+    <t>Latest Item Added</t>
+  </si>
+  <si>
+    <t>Sheryl</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>salexander</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>jmeyer</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>oortiz</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>jmatthews</t>
+  </si>
+  <si>
+    <t>Maryann</t>
+  </si>
+  <si>
+    <t>Delgado</t>
+  </si>
+  <si>
+    <t>mdelgado</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>rsingleton</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>ktyler</t>
+  </si>
+  <si>
+    <t>Willard</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>wjackson</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>afrancis</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>yschneider</t>
+  </si>
+  <si>
+    <t>$latest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +350,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,11 +413,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,6 +435,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,25 +733,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="49.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="8" max="8" width="42.26953125" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -633,7 +799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -653,7 +819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -664,7 +830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -678,7 +844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -698,7 +864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -708,17 +874,17 @@
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -738,14 +904,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -758,7 +924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -776,7 +942,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -794,7 +960,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -812,7 +978,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -830,7 +996,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -840,6 +1006,9 @@
       <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
@@ -848,10 +1017,393 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="19" spans="7:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G19" s="3"/>
+    <row r="18" spans="2:12" ht="98" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5">
+        <v>608801</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>29.98</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="5">
+        <v>379492</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>37.97</v>
+      </c>
+      <c r="J20" s="5">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="5">
+        <v>262104</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8</v>
+      </c>
+      <c r="G21" s="8">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J21" s="5">
+        <v>12</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="5">
+        <v>856265</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>27.98</v>
+      </c>
+      <c r="J22" s="5">
+        <v>7</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5">
+        <v>492209</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>4</v>
+      </c>
+      <c r="I23" s="5">
+        <v>42.96</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5">
+        <v>400233</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="J24" s="5">
+        <v>4</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="5">
+        <v>352178</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>4</v>
+      </c>
+      <c r="I25" s="5">
+        <v>44.95</v>
+      </c>
+      <c r="J25" s="5">
+        <v>6</v>
+      </c>
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+      <c r="L25" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="5">
+        <v>566608</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>40.97</v>
+      </c>
+      <c r="J26" s="5">
+        <v>4</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5">
+        <v>457419</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5">
+        <v>67.94</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>4</v>
+      </c>
+      <c r="L27" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="5">
+        <v>566792</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="J28" s="5">
+        <v>5</v>
+      </c>
+      <c r="K28" s="5">
+        <v>3</v>
+      </c>
+      <c r="L28" s="5">
+        <v>401</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>